--- a/results/Aggregate_results.xlsx
+++ b/results/Aggregate_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\astratig\df-forecast-comb\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akyla\df-forecast-comb\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B67B754-1EAA-4465-8CAF-0DFE0398FA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F35C6A-A2AB-4E53-9EFD-1B549DA064CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A3251497-2420-4907-8694-14776D3DEBA9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A3251497-2420-4907-8694-14776D3DEBA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>TopExpert</t>
   </si>
@@ -61,18 +61,6 @@
   </si>
   <si>
     <t>DF_1</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
   </si>
   <si>
     <t>Static</t>
@@ -197,13 +185,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -227,9 +214,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -267,7 +254,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -373,7 +360,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -515,7 +502,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -529,7 +516,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -540,57 +527,57 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="I1" s="8" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="I1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -599,13 +586,13 @@
         <v>6.5118929879603096</v>
       </c>
       <c r="D3" s="1">
-        <v>6.1124106643132396</v>
+        <v>5.8917260280999999</v>
       </c>
       <c r="E3" s="1">
         <v>6.7002391110825004</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>0</v>
@@ -614,13 +601,13 @@
         <v>6.5118929879603096</v>
       </c>
       <c r="J3" s="1">
-        <v>6.1124106643132396</v>
+        <v>5.8917260280999999</v>
       </c>
       <c r="K3" s="1">
         <v>6.7002391110825004</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -629,7 +616,7 @@
         <v>7.1555541926357904</v>
       </c>
       <c r="D4" s="1">
-        <v>7.0650004768547197</v>
+        <v>6.9806090204000002</v>
       </c>
       <c r="E4" s="1">
         <v>6.6613789850963396</v>
@@ -642,13 +629,13 @@
         <v>6.8370370370370299</v>
       </c>
       <c r="J4" s="1">
-        <v>6.9786419753086397</v>
+        <v>6.8888888888888804</v>
       </c>
       <c r="K4" s="1">
         <v>6.99444444444444</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -657,7 +644,7 @@
         <v>6.4256778751338803</v>
       </c>
       <c r="D5" s="1">
-        <v>6.2355843927490504</v>
+        <v>6.0899307970000001</v>
       </c>
       <c r="E5" s="1">
         <v>6.3343697478275303</v>
@@ -670,13 +657,13 @@
         <v>6.3464814814814803</v>
       </c>
       <c r="J5" s="1">
-        <v>6.4066666666666601</v>
+        <v>6.2728888888888799</v>
       </c>
       <c r="K5" s="1">
         <v>6.74166666666666</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -684,8 +671,8 @@
       <c r="C6" s="2">
         <v>5.45748987654488</v>
       </c>
-      <c r="D6" s="2">
-        <v>5.1569780500897204</v>
+      <c r="D6" s="1">
+        <v>5.0115818996999897</v>
       </c>
       <c r="E6" s="2">
         <v>5.3929736020651404</v>
@@ -698,13 +685,13 @@
         <v>5.7326851851851801</v>
       </c>
       <c r="J6" s="1">
-        <v>5.7104783950617204</v>
+        <v>5.5769861111111103</v>
       </c>
       <c r="K6" s="2">
         <v>6.1291666666666602</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
@@ -713,7 +700,7 @@
         <v>5.6102550565403702</v>
       </c>
       <c r="D7" s="1">
-        <v>5.2946333101538796</v>
+        <v>5.1458927358999897</v>
       </c>
       <c r="E7" s="1">
         <v>5.4755809953320398</v>
@@ -726,13 +713,13 @@
         <v>5.7879629629629603</v>
       </c>
       <c r="J7" s="1">
-        <v>5.7182253086419701</v>
+        <v>5.5906250000000002</v>
       </c>
       <c r="K7" s="1">
         <v>6.1741666666666601</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -741,7 +728,7 @@
         <v>5.4833831215775</v>
       </c>
       <c r="D8" s="1">
-        <v>5.2237899886808901</v>
+        <v>5.0642330801000002</v>
       </c>
       <c r="E8" s="1">
         <v>5.6219289068506102</v>
@@ -754,13 +741,13 @@
         <v>5.7301851851851797</v>
       </c>
       <c r="J8" s="1">
-        <v>5.7222222222222197</v>
+        <v>5.5882222222222202</v>
       </c>
       <c r="K8" s="1">
         <v>6.2844444444444401</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>6</v>
@@ -769,7 +756,7 @@
         <v>5.4862735813672501</v>
       </c>
       <c r="D9" s="1">
-        <v>5.2243734863629703</v>
+        <v>4.9572792567999997</v>
       </c>
       <c r="E9" s="1">
         <v>5.62270653382779</v>
@@ -782,13 +769,13 @@
         <v>5.7294444444444403</v>
       </c>
       <c r="J9" s="1">
-        <v>5.7229629629629599</v>
+        <v>5.4629999999999903</v>
       </c>
       <c r="K9" s="1">
         <v>6.2841666666666596</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>7</v>
@@ -796,8 +783,8 @@
       <c r="C10" s="1">
         <v>5.4889138537620896</v>
       </c>
-      <c r="D10" s="1">
-        <v>5.22733685744649</v>
+      <c r="D10" s="2">
+        <v>4.9024954484999999</v>
       </c>
       <c r="E10" s="1">
         <v>5.4800892246267203</v>
@@ -810,297 +797,297 @@
         <v>5.72555555555555</v>
       </c>
       <c r="J10" s="2">
-        <v>5.7040740740740699</v>
+        <v>5.4374861111111104</v>
       </c>
       <c r="K10" s="1">
         <v>6.1694444444444398</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C11" s="4">
         <v>5.3470343122059196</v>
       </c>
-      <c r="D11" s="4">
-        <v>5.0427854158851</v>
+      <c r="D11" s="3">
+        <v>5.0809319330999996</v>
       </c>
       <c r="E11" s="3">
         <v>5.2238047267104397</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I11" s="4">
         <v>5.6277777777777702</v>
       </c>
-      <c r="J11" s="4">
-        <v>5.5839506172839499</v>
+      <c r="J11" s="3">
+        <v>5.6434861111111099</v>
       </c>
       <c r="K11" s="4">
         <v>5.9813888888888798</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C12" s="3">
         <v>5.4338247149248797</v>
       </c>
       <c r="D12" s="3">
-        <v>5.2502005043583297</v>
+        <v>4.9300793391999997</v>
       </c>
       <c r="E12" s="3">
         <v>5.2892021934720397</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I12" s="3">
         <v>5.7162962962962904</v>
       </c>
       <c r="J12" s="3">
-        <v>5.78399691358024</v>
+        <v>5.4925555555555503</v>
       </c>
       <c r="K12" s="3">
         <v>6.0872222222222199</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="5">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3">
         <v>5.3937204741273002</v>
       </c>
       <c r="D13" s="3">
-        <v>5.0723794725274702</v>
+        <v>5.0282197006000002</v>
       </c>
       <c r="E13" s="3">
         <v>5.2136015865848604</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I13" s="3">
         <v>5.6748148148148099</v>
       </c>
       <c r="J13" s="3">
-        <v>5.6572993827160403</v>
+        <v>5.5719999999999903</v>
       </c>
       <c r="K13" s="3">
         <v>6.0391666666666604</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C14" s="3">
         <v>5.3471486026947899</v>
       </c>
-      <c r="D14" s="3">
-        <v>5.08151405191858</v>
+      <c r="D14" s="4">
+        <v>4.8573280112999999</v>
       </c>
       <c r="E14" s="4">
         <v>5.1832958157289504</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I14" s="3">
         <v>5.6521527777777703</v>
       </c>
-      <c r="J14" s="3">
-        <v>5.6397530864197503</v>
+      <c r="J14" s="4">
+        <v>5.4272222222222197</v>
       </c>
       <c r="K14" s="3">
         <v>6.0016666666666598</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3">
         <v>5.3875102175522498</v>
       </c>
       <c r="D15" s="3">
-        <v>5.0507715771996997</v>
+        <v>4.9534769838999999</v>
       </c>
       <c r="E15" s="3">
         <v>5.1974778526306498</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I15" s="3">
         <v>5.6538888888888801</v>
       </c>
       <c r="J15" s="3">
-        <v>5.6051851851851797</v>
+        <v>5.5011111111111104</v>
       </c>
       <c r="K15" s="3">
         <v>5.9974999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="6" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="5">
+        <v>5.2820884851164296</v>
+      </c>
+      <c r="D16" s="5">
+        <v>4.9827952227999903</v>
+      </c>
+      <c r="E16" s="5">
+        <v>5.0958032327116403</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="5">
+        <v>5.54064814814814</v>
+      </c>
+      <c r="J16" s="5">
+        <v>5.5566388888888802</v>
+      </c>
+      <c r="K16" s="5">
+        <v>5.8692361111111104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="5">
+        <v>5.5577700757070501</v>
+      </c>
+      <c r="D17" s="5">
+        <v>5.0466347893999997</v>
+      </c>
+      <c r="E17" s="5">
+        <v>5.2497449603619097</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="5">
+        <v>5.7716666666666603</v>
+      </c>
+      <c r="J17" s="5">
+        <v>5.60344444444444</v>
+      </c>
+      <c r="K17" s="5">
+        <v>6.0563888888888897</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="5">
+        <v>5.2786957633185096</v>
+      </c>
+      <c r="D18" s="5">
+        <v>4.9028600266</v>
+      </c>
+      <c r="E18" s="5">
+        <v>5.0446893800718398</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="5">
+        <v>5.6061111111111099</v>
+      </c>
+      <c r="J18" s="5">
+        <v>5.5307916666666603</v>
+      </c>
+      <c r="K18" s="5">
+        <v>5.9188888888888798</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="5">
+        <v>5.3992363477699996</v>
+      </c>
+      <c r="D19" s="5">
+        <v>4.9505261214000003</v>
+      </c>
+      <c r="E19" s="6">
+        <v>5.0169965241675998</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="5">
+        <v>5.6389351851851801</v>
+      </c>
+      <c r="J19" s="5">
+        <v>5.5223333333333304</v>
+      </c>
+      <c r="K19" s="6">
+        <v>5.8566666666666602</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="6">
-        <v>5.2820884851164296</v>
-      </c>
-      <c r="D16" s="6">
-        <v>4.9838416177527201</v>
-      </c>
-      <c r="E16" s="6">
-        <v>5.0958032327116403</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="6" t="s">
+      <c r="C20" s="6">
+        <v>5.2143157332175996</v>
+      </c>
+      <c r="D20" s="6">
+        <v>4.8455297087</v>
+      </c>
+      <c r="E20" s="5">
+        <v>5.0701656408783604</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="6">
-        <v>5.54064814814814</v>
-      </c>
-      <c r="J16" s="6">
-        <v>5.5549845679012302</v>
-      </c>
-      <c r="K16" s="6">
-        <v>5.8692361111111104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="6">
-        <v>5.5577700757070501</v>
-      </c>
-      <c r="D17" s="6">
-        <v>5.1596807824045801</v>
-      </c>
-      <c r="E17" s="6">
-        <v>5.2497449603619097</v>
-      </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="6">
-        <v>5.7716666666666603</v>
-      </c>
-      <c r="J17" s="6">
-        <v>5.6892283950617202</v>
-      </c>
-      <c r="K17" s="6">
-        <v>6.0563888888888897</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="6">
-        <v>5.2786957633185096</v>
-      </c>
-      <c r="D18" s="6">
-        <v>4.9821567930271602</v>
-      </c>
-      <c r="E18" s="6">
-        <v>5.0446893800718398</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="6">
-        <v>5.6061111111111099</v>
-      </c>
-      <c r="J18" s="6">
-        <v>5.54432098765432</v>
-      </c>
-      <c r="K18" s="6">
-        <v>5.9188888888888798</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="6">
-        <v>5.3992363477699996</v>
-      </c>
-      <c r="D19" s="6">
-        <v>5.0509992790447198</v>
-      </c>
-      <c r="E19" s="7">
-        <v>5.0169965241675998</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" s="6">
-        <v>5.6389351851851801</v>
-      </c>
-      <c r="J19" s="6">
-        <v>5.6241975308641896</v>
-      </c>
-      <c r="K19" s="7">
-        <v>5.8566666666666602</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="7">
-        <v>5.2143157332175996</v>
-      </c>
-      <c r="D20" s="7">
-        <v>4.9387626683342498</v>
-      </c>
-      <c r="E20" s="6">
-        <v>5.0701656408783604</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="7">
+      <c r="I20" s="6">
         <v>5.4933333333333296</v>
       </c>
-      <c r="J20" s="7">
-        <v>5.5221296296296298</v>
-      </c>
-      <c r="K20" s="6">
+      <c r="J20" s="6">
+        <v>5.4070277777777704</v>
+      </c>
+      <c r="K20" s="5">
         <v>5.8772222222222199</v>
       </c>
     </row>

--- a/results/Aggregate_results.xlsx
+++ b/results/Aggregate_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akyla\df-forecast-comb\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\astratig\df-forecast-comb\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F35C6A-A2AB-4E53-9EFD-1B549DA064CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA3A887-3BBF-4AE9-884D-CFEAD715C38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A3251497-2420-4907-8694-14776D3DEBA9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A3251497-2420-4907-8694-14776D3DEBA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -214,9 +214,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -254,7 +254,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -360,7 +360,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -502,7 +502,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -516,7 +516,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -527,17 +527,17 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C1" s="7" t="s">
         <v>25</v>
       </c>
@@ -549,7 +549,7 @@
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>21</v>
       </c>
@@ -575,7 +575,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -583,13 +583,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>6.5118929879603096</v>
+        <v>6.1482411720997199</v>
       </c>
       <c r="D3" s="1">
         <v>5.8917260280999999</v>
       </c>
       <c r="E3" s="1">
-        <v>6.7002391110825004</v>
+        <v>5.4792131688363099</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>8</v>
@@ -598,212 +598,212 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>6.5118929879603096</v>
+        <v>6.1482411720997199</v>
       </c>
       <c r="J3" s="1">
         <v>5.8917260280999999</v>
       </c>
       <c r="K3" s="1">
-        <v>6.7002391110825004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>5.4792131688363099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>7.1555541926357904</v>
+        <v>7.27355033020027</v>
       </c>
       <c r="D4" s="1">
         <v>6.9806090204000002</v>
       </c>
       <c r="E4" s="1">
-        <v>6.6613789850963396</v>
+        <v>6.3953858456024903</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I4" s="1">
-        <v>6.8370370370370299</v>
+        <v>6.8888888888888804</v>
       </c>
       <c r="J4" s="1">
         <v>6.8888888888888804</v>
       </c>
       <c r="K4" s="1">
-        <v>6.99444444444444</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6.7654166666666598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>6.4256778751338803</v>
+        <v>6.3831099976549197</v>
       </c>
       <c r="D5" s="1">
         <v>6.0899307970000001</v>
       </c>
       <c r="E5" s="1">
-        <v>6.3343697478275303</v>
+        <v>5.6701887315661601</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I5" s="1">
-        <v>6.3464814814814803</v>
+        <v>6.2884444444444396</v>
       </c>
       <c r="J5" s="1">
         <v>6.2728888888888799</v>
       </c>
       <c r="K5" s="1">
-        <v>6.74166666666666</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6.1889236111111101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2">
-        <v>5.45748987654488</v>
+        <v>5.26245404490549</v>
       </c>
       <c r="D6" s="1">
         <v>5.0115818996999897</v>
       </c>
-      <c r="E6" s="2">
-        <v>5.3929736020651404</v>
+      <c r="E6" s="1">
+        <v>4.6889966873249804</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I6" s="1">
-        <v>5.7326851851851801</v>
+        <v>5.5594999999999999</v>
       </c>
       <c r="J6" s="1">
         <v>5.5769861111111103</v>
       </c>
-      <c r="K6" s="2">
-        <v>6.1291666666666602</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K6" s="1">
+        <v>5.4869965277777704</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="1">
-        <v>5.6102550565403702</v>
+        <v>5.3995553364903799</v>
       </c>
       <c r="D7" s="1">
         <v>5.1458927358999897</v>
       </c>
-      <c r="E7" s="1">
-        <v>5.4755809953320398</v>
+      <c r="E7" s="2">
+        <v>4.7476970025008702</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I7" s="1">
-        <v>5.7879629629629603</v>
+        <v>5.6147777777777703</v>
       </c>
       <c r="J7" s="1">
         <v>5.5906250000000002</v>
       </c>
       <c r="K7" s="1">
-        <v>6.1741666666666601</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>5.4901388888888896</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>5.4833831215775</v>
+        <v>5.2909782404054502</v>
       </c>
       <c r="D8" s="1">
         <v>5.0642330801000002</v>
       </c>
       <c r="E8" s="1">
-        <v>5.6219289068506102</v>
+        <v>4.8171609613464303</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I8" s="1">
-        <v>5.7301851851851797</v>
+        <v>5.5642222222222202</v>
       </c>
       <c r="J8" s="1">
         <v>5.5882222222222202</v>
       </c>
       <c r="K8" s="1">
-        <v>6.2844444444444401</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>5.5605555555555499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1">
-        <v>5.4862735813672501</v>
+        <v>5.2912677049555397</v>
       </c>
       <c r="D9" s="1">
         <v>4.9572792567999997</v>
       </c>
       <c r="E9" s="1">
-        <v>5.62270653382779</v>
+        <v>4.8122620445007502</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I9" s="1">
-        <v>5.7294444444444403</v>
+        <v>5.5612222222222201</v>
       </c>
       <c r="J9" s="1">
         <v>5.4629999999999903</v>
       </c>
       <c r="K9" s="1">
-        <v>6.2841666666666596</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>5.5516666666666596</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1">
-        <v>5.4889138537620896</v>
+        <v>5.2909477413078001</v>
       </c>
       <c r="D10" s="2">
         <v>4.9024954484999999</v>
       </c>
       <c r="E10" s="1">
-        <v>5.4800892246267203</v>
+        <v>4.7480384723186804</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I10" s="2">
-        <v>5.72555555555555</v>
+        <v>5.5557777777777702</v>
       </c>
       <c r="J10" s="2">
         <v>5.4374861111111104</v>
       </c>
-      <c r="K10" s="1">
-        <v>6.1694444444444398</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K10" s="2">
+        <v>5.4836458333333304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -811,13 +811,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="4">
-        <v>5.3470343122059196</v>
+        <v>5.1801318929093698</v>
       </c>
       <c r="D11" s="3">
         <v>5.0809319330999996</v>
       </c>
       <c r="E11" s="3">
-        <v>5.2238047267104397</v>
+        <v>4.6002462262855301</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>9</v>
@@ -826,128 +826,128 @@
         <v>10</v>
       </c>
       <c r="I11" s="4">
-        <v>5.6277777777777702</v>
+        <v>5.4836805555555497</v>
       </c>
       <c r="J11" s="3">
         <v>5.6434861111111099</v>
       </c>
       <c r="K11" s="4">
-        <v>5.9813888888888798</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>5.3959722222222197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="3">
-        <v>5.4338247149248797</v>
+        <v>5.2593242142516603</v>
       </c>
       <c r="D12" s="3">
         <v>4.9300793391999997</v>
       </c>
       <c r="E12" s="3">
-        <v>5.2892021934720397</v>
+        <v>4.6329303350838904</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I12" s="3">
-        <v>5.7162962962962904</v>
+        <v>5.5707083333333296</v>
       </c>
       <c r="J12" s="3">
         <v>5.4925555555555503</v>
       </c>
       <c r="K12" s="3">
-        <v>6.0872222222222199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>5.4676388888888798</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="3">
-        <v>5.3937204741273002</v>
+        <v>5.2019568444413702</v>
       </c>
       <c r="D13" s="3">
         <v>5.0282197006000002</v>
       </c>
       <c r="E13" s="3">
-        <v>5.2136015865848604</v>
+        <v>4.59535878945423</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I13" s="3">
-        <v>5.6748148148148099</v>
+        <v>5.5094444444444397</v>
       </c>
       <c r="J13" s="3">
         <v>5.5719999999999903</v>
       </c>
       <c r="K13" s="3">
-        <v>6.0391666666666604</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>5.4305729166666596</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="3">
-        <v>5.3471486026947899</v>
+        <v>5.1820905843152802</v>
       </c>
       <c r="D14" s="4">
         <v>4.8573280112999999</v>
       </c>
       <c r="E14" s="4">
-        <v>5.1832958157289504</v>
+        <v>4.5724202156454901</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I14" s="3">
-        <v>5.6521527777777703</v>
+        <v>5.5254027777777699</v>
       </c>
       <c r="J14" s="4">
         <v>5.4272222222222197</v>
       </c>
       <c r="K14" s="3">
-        <v>6.0016666666666598</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>5.4101388888888797</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="3">
-        <v>5.3875102175522498</v>
+        <v>5.1876487585410196</v>
       </c>
       <c r="D15" s="3">
         <v>4.9534769838999999</v>
       </c>
       <c r="E15" s="3">
-        <v>5.1974778526306498</v>
+        <v>4.58280580146437</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I15" s="3">
-        <v>5.6538888888888801</v>
+        <v>5.5114861111111102</v>
       </c>
       <c r="J15" s="3">
         <v>5.5011111111111104</v>
       </c>
       <c r="K15" s="3">
-        <v>5.9974999999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>5.39678819444444</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -955,13 +955,13 @@
         <v>15</v>
       </c>
       <c r="C16" s="5">
-        <v>5.2820884851164296</v>
+        <v>5.1345023121393103</v>
       </c>
       <c r="D16" s="5">
         <v>4.9827952227999903</v>
       </c>
       <c r="E16" s="5">
-        <v>5.0958032327116403</v>
+        <v>4.5283263712597002</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>20</v>
@@ -970,125 +970,125 @@
         <v>15</v>
       </c>
       <c r="I16" s="5">
-        <v>5.54064814814814</v>
+        <v>5.4142916666666601</v>
       </c>
       <c r="J16" s="5">
         <v>5.5566388888888802</v>
       </c>
       <c r="K16" s="5">
-        <v>5.8692361111111104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>5.3420486111111103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="5">
-        <v>5.5577700757070501</v>
+        <v>5.3360605146163502</v>
       </c>
       <c r="D17" s="5">
         <v>5.0466347893999997</v>
       </c>
       <c r="E17" s="5">
-        <v>5.2497449603619097</v>
+        <v>4.6110652059317001</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="I17" s="5">
-        <v>5.7716666666666603</v>
+        <v>5.5845138888888801</v>
       </c>
       <c r="J17" s="5">
         <v>5.60344444444444</v>
       </c>
       <c r="K17" s="5">
-        <v>6.0563888888888897</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>5.4511111111111097</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="5">
-        <v>5.2786957633185096</v>
+        <v>5.1077634075790499</v>
       </c>
       <c r="D18" s="5">
         <v>4.9028600266</v>
       </c>
       <c r="E18" s="5">
-        <v>5.0446893800718398</v>
+        <v>4.4954043681825597</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I18" s="5">
-        <v>5.6061111111111099</v>
+        <v>5.45211111111111</v>
       </c>
       <c r="J18" s="5">
         <v>5.5307916666666603</v>
       </c>
       <c r="K18" s="5">
-        <v>5.9188888888888798</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>5.3681944444444403</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="5">
-        <v>5.3992363477699996</v>
+        <v>5.1488433460049903</v>
       </c>
       <c r="D19" s="5">
         <v>4.9505261214000003</v>
       </c>
       <c r="E19" s="6">
-        <v>5.0169965241675998</v>
+        <v>4.4822583188352096</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I19" s="5">
-        <v>5.6389351851851801</v>
+        <v>5.4745138888888798</v>
       </c>
       <c r="J19" s="5">
         <v>5.5223333333333304</v>
       </c>
-      <c r="K19" s="6">
-        <v>5.8566666666666602</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K19" s="5">
+        <v>5.32005208333333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="6">
-        <v>5.2143157332175996</v>
+        <v>5.0561106023695199</v>
       </c>
       <c r="D20" s="6">
         <v>4.8455297087</v>
       </c>
       <c r="E20" s="5">
-        <v>5.0701656408783604</v>
+        <v>4.5034956047330903</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I20" s="6">
-        <v>5.4933333333333296</v>
+        <v>5.3576666666666597</v>
       </c>
       <c r="J20" s="6">
         <v>5.4070277777777704</v>
       </c>
-      <c r="K20" s="5">
-        <v>5.8772222222222199</v>
+      <c r="K20" s="6">
+        <v>5.30920138888888</v>
       </c>
     </row>
   </sheetData>

--- a/results/Aggregate_results.xlsx
+++ b/results/Aggregate_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\astratig\df-forecast-comb\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA3A887-3BBF-4AE9-884D-CFEAD715C38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699CECC1-D4CB-410B-9675-AFFE0476788D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A3251497-2420-4907-8694-14776D3DEBA9}"/>
   </bookViews>
@@ -185,17 +185,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,7 +530,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection sqref="A1:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,16 +541,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="I1" s="7" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -582,13 +585,13 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="5">
         <v>6.1482411720997199</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="5">
         <v>5.8917260280999999</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="5">
         <v>5.4792131688363099</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -597,13 +600,13 @@
       <c r="H3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="5">
         <v>6.1482411720997199</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="5">
         <v>5.8917260280999999</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="5">
         <v>5.4792131688363099</v>
       </c>
     </row>
@@ -612,26 +615,26 @@
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="5">
         <v>7.27355033020027</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="5">
         <v>6.9806090204000002</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="5">
         <v>6.3953858456024903</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="5">
         <v>6.8888888888888804</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="5">
         <v>6.8888888888888804</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="5">
         <v>6.7654166666666598</v>
       </c>
     </row>
@@ -640,26 +643,26 @@
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="5">
         <v>6.3831099976549197</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="5">
         <v>6.0899307970000001</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="5">
         <v>5.6701887315661601</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="5">
         <v>6.2884444444444396</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="5">
         <v>6.2728888888888799</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="5">
         <v>6.1889236111111101</v>
       </c>
     </row>
@@ -668,26 +671,26 @@
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="6">
         <v>5.26245404490549</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="5">
         <v>5.0115818996999897</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="5">
         <v>4.6889966873249804</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="5">
         <v>5.5594999999999999</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="5">
         <v>5.5769861111111103</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="5">
         <v>5.4869965277777704</v>
       </c>
     </row>
@@ -696,26 +699,26 @@
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="5">
         <v>5.3995553364903799</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="5">
         <v>5.1458927358999897</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="6">
         <v>4.7476970025008702</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="5">
         <v>5.6147777777777703</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="5">
         <v>5.5906250000000002</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="5">
         <v>5.4901388888888896</v>
       </c>
     </row>
@@ -724,26 +727,26 @@
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="5">
         <v>5.2909782404054502</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="5">
         <v>5.0642330801000002</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="5">
         <v>4.8171609613464303</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="5">
         <v>5.5642222222222202</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="5">
         <v>5.5882222222222202</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="5">
         <v>5.5605555555555499</v>
       </c>
     </row>
@@ -752,26 +755,26 @@
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="5">
         <v>5.2912677049555397</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="5">
         <v>4.9572792567999997</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="5">
         <v>4.8122620445007502</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="5">
         <v>5.5612222222222201</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="5">
         <v>5.4629999999999903</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="5">
         <v>5.5516666666666596</v>
       </c>
     </row>
@@ -780,314 +783,314 @@
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="5">
         <v>5.2909477413078001</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="6">
         <v>4.9024954484999999</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="5">
         <v>4.7480384723186804</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="6">
         <v>5.5557777777777702</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="6">
         <v>5.4374861111111104</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="6">
         <v>5.4836458333333304</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="7">
         <v>5.1801318929093698</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="8">
         <v>5.0809319330999996</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="8">
         <v>4.6002462262855301</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="7">
         <v>5.4836805555555497</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="8">
         <v>5.6434861111111099</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="7">
         <v>5.3959722222222197</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="8">
         <v>5.2593242142516603</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="8">
         <v>4.9300793391999997</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="8">
         <v>4.6329303350838904</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="8">
         <v>5.5707083333333296</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="8">
         <v>5.4925555555555503</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="8">
         <v>5.4676388888888798</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="8">
         <v>5.2019568444413702</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="8">
         <v>5.0282197006000002</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="8">
         <v>4.59535878945423</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="8">
         <v>5.5094444444444397</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="8">
         <v>5.5719999999999903</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="8">
         <v>5.4305729166666596</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="8">
         <v>5.1820905843152802</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="7">
         <v>4.8573280112999999</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="7">
         <v>4.5724202156454901</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="8">
         <v>5.5254027777777699</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="7">
         <v>5.4272222222222197</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="8">
         <v>5.4101388888888797</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="8">
         <v>5.1876487585410196</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="8">
         <v>4.9534769838999999</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="8">
         <v>4.58280580146437</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
+      <c r="G15" s="2"/>
+      <c r="H15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="8">
         <v>5.5114861111111102</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="8">
         <v>5.5011111111111104</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="8">
         <v>5.39678819444444</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="9">
         <v>5.1345023121393103</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="9">
         <v>4.9827952227999903</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="9">
         <v>4.5283263712597002</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="9">
         <v>5.4142916666666601</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="9">
         <v>5.5566388888888802</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="9">
         <v>5.3420486111111103</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="9">
         <v>5.3360605146163502</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="9">
         <v>5.0466347893999997</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="9">
         <v>4.6110652059317001</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5" t="s">
+      <c r="G17" s="3"/>
+      <c r="H17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="9">
         <v>5.5845138888888801</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="9">
         <v>5.60344444444444</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="9">
         <v>5.4511111111111097</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5" t="s">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="9">
         <v>5.1077634075790499</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="9">
         <v>4.9028600266</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="9">
         <v>4.4954043681825597</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5" t="s">
+      <c r="G18" s="3"/>
+      <c r="H18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="9">
         <v>5.45211111111111</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="9">
         <v>5.5307916666666603</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="9">
         <v>5.3681944444444403</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5" t="s">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="9">
         <v>5.1488433460049903</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="9">
         <v>4.9505261214000003</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="10">
         <v>4.4822583188352096</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5" t="s">
+      <c r="G19" s="3"/>
+      <c r="H19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="9">
         <v>5.4745138888888798</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="9">
         <v>5.5223333333333304</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="9">
         <v>5.32005208333333</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5" t="s">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="10">
         <v>5.0561106023695199</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="10">
         <v>4.8455297087</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="9">
         <v>4.5034956047330903</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5" t="s">
+      <c r="G20" s="3"/>
+      <c r="H20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="10">
         <v>5.3576666666666597</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="10">
         <v>5.4070277777777704</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="10">
         <v>5.30920138888888</v>
       </c>
     </row>
@@ -1097,5 +1100,6 @@
     <mergeCell ref="I1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>